--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem5/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem5/42/word_level_predictions_42.xlsx
@@ -4402,260 +4402,260 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C77" s="2" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D77" t="n">
+      <c r="D77" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E77" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I77" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K77" t="b">
-        <v>1</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C78" s="2" t="inlineStr">
         <is>
           <t>ambient</t>
         </is>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E78" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F78" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="G78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" s="2" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="D79" t="n">
+      <c r="D79" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E79" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F79" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="G79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>too</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
+      <c r="A81" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C81" s="2" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="D81" t="n">
+      <c r="D81" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E81" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="F81" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I81" t="b">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K81" t="b">
-        <v>1</v>
-      </c>
-      <c r="L81" t="inlineStr">
+      <c r="G81" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G170" t="b">
@@ -9285,57 +9285,57 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="n">
+      <c r="A171" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B171" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="C171" s="2" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="D171" t="n">
+      <c r="D171" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="E171" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="F171" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G171" t="b">
-        <v>1</v>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I171" t="b">
-        <v>1</v>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K171" t="b">
-        <v>1</v>
-      </c>
-      <c r="L171" t="inlineStr">
+      <c r="G171" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I171" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J171" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K171" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L171" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_E</t>
         </is>
@@ -9365,7 +9365,7 @@
       </c>
       <c r="F172" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G172" s="2" t="b">
@@ -9389,7 +9389,7 @@
       </c>
       <c r="L172" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -9429,11 +9429,11 @@
         </is>
       </c>
       <c r="I173" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K173" s="2" t="b">
@@ -9469,7 +9469,7 @@
       </c>
       <c r="F174" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G174" s="2" t="b">
@@ -9481,11 +9481,11 @@
         </is>
       </c>
       <c r="I174" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K174" s="2" t="b">
@@ -9493,7 +9493,7 @@
       </c>
       <c r="L174" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -9521,7 +9521,7 @@
       </c>
       <c r="F175" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G175" s="2" t="b">
@@ -9533,11 +9533,11 @@
         </is>
       </c>
       <c r="I175" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K175" s="2" t="b">
@@ -9545,7 +9545,7 @@
       </c>
       <c r="L175" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem5/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem5/42/word_level_predictions_42.xlsx
@@ -4402,260 +4402,260 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" t="n">
         <v>3</v>
       </c>
-      <c r="B77" s="2" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C77" s="2" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D77" s="2" t="n">
+      <c r="D77" t="n">
         <v>11</v>
       </c>
-      <c r="E77" s="2" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F77" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G77" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L77" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" t="n">
         <v>3</v>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>ambient</t>
         </is>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" t="n">
         <v>12</v>
       </c>
-      <c r="E78" s="2" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2" t="inlineStr">
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" t="n">
         <v>3</v>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="D79" s="2" t="n">
+      <c r="D79" t="n">
         <v>13</v>
       </c>
-      <c r="E79" s="2" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2" t="inlineStr">
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" t="n">
         <v>3</v>
       </c>
-      <c r="B80" s="2" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C80" s="2" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>too</t>
         </is>
       </c>
-      <c r="D80" s="2" t="n">
+      <c r="D80" t="n">
         <v>14</v>
       </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" t="n">
         <v>3</v>
       </c>
-      <c r="B81" s="2" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C81" s="2" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="D81" s="2" t="n">
+      <c r="D81" t="n">
         <v>15</v>
       </c>
-      <c r="E81" s="2" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F81" s="2" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G81" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L81" s="2" t="inlineStr">
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I81" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K81" t="b">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9261,81 +9261,81 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G170" t="b">
+        <v>1</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I170" t="b">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K170" t="b">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>6</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2.</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>31</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G170" t="b">
-        <v>1</v>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I170" t="b">
-        <v>1</v>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K170" t="b">
-        <v>1</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B171" s="2" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C171" s="2" t="inlineStr">
-        <is>
-          <t>2.</t>
-        </is>
-      </c>
-      <c r="D171" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="E171" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F171" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G171" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H171" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I171" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J171" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K171" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L171" s="2" t="inlineStr">
+      <c r="G171" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I171" t="b">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K171" t="b">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_E</t>
         </is>
@@ -9365,7 +9365,7 @@
       </c>
       <c r="F172" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G172" s="2" t="b">
@@ -9389,7 +9389,7 @@
       </c>
       <c r="L172" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9429,11 +9429,11 @@
         </is>
       </c>
       <c r="I173" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K173" s="2" t="b">
@@ -9469,7 +9469,7 @@
       </c>
       <c r="F174" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G174" s="2" t="b">
@@ -9481,11 +9481,11 @@
         </is>
       </c>
       <c r="I174" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K174" s="2" t="b">
@@ -9493,7 +9493,7 @@
       </c>
       <c r="L174" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9521,7 +9521,7 @@
       </c>
       <c r="F175" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G175" s="2" t="b">
@@ -9533,11 +9533,11 @@
         </is>
       </c>
       <c r="I175" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K175" s="2" t="b">
@@ -9545,7 +9545,7 @@
       </c>
       <c r="L175" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
